--- a/record.xlsx
+++ b/record.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC38EB-9603-4D56-858F-E0992A2015A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D99CDA4-4D83-49CA-9518-2BEF2559CAED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Train acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +115,62 @@
   </si>
   <si>
     <t>这次明显angry效果更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAFFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果就不好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡更剧烈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500次epoch 没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学的很慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss大概都在0.04这个样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡越来越剧烈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不行了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率应该在0.001-0.005之间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -784,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B608C2E3-0F8B-4B85-AED4-B21954974610}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -909,4 +966,239 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6335B0B6-EDD6-43E7-A038-D455C4522878}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>831</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>849</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>1E-4</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>855</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D10">
+        <v>86</v>
+      </c>
+      <c r="E10">
+        <v>858</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>1E-3</v>
+      </c>
+      <c r="D11">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>903</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>904</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>